--- a/Global_M2/TVDataFeed/FinalData/FX_Data/Indonesia_FX.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/FX_Data/Indonesia_FX.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G391"/>
+  <dimension ref="A1:G394"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10217,12 +10217,87 @@
         <v>15060</v>
       </c>
       <c r="E391" t="n">
-        <v>14844</v>
+        <v>14629</v>
       </c>
       <c r="F391" t="n">
-        <v>14845</v>
+        <v>14665</v>
       </c>
       <c r="G391" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" s="2" t="n">
+        <v>45047.33333333334</v>
+      </c>
+      <c r="B392" t="inlineStr">
+        <is>
+          <t>FX_IDC:USDIDR</t>
+        </is>
+      </c>
+      <c r="C392" t="n">
+        <v>14705</v>
+      </c>
+      <c r="D392" t="n">
+        <v>15016</v>
+      </c>
+      <c r="E392" t="n">
+        <v>14618</v>
+      </c>
+      <c r="F392" t="n">
+        <v>14984</v>
+      </c>
+      <c r="G392" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" s="2" t="n">
+        <v>45078.33333333334</v>
+      </c>
+      <c r="B393" t="inlineStr">
+        <is>
+          <t>FX_IDC:USDIDR</t>
+        </is>
+      </c>
+      <c r="C393" t="n">
+        <v>15000</v>
+      </c>
+      <c r="D393" t="n">
+        <v>15049.5</v>
+      </c>
+      <c r="E393" t="n">
+        <v>14824</v>
+      </c>
+      <c r="F393" t="n">
+        <v>14989</v>
+      </c>
+      <c r="G393" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" s="2" t="n">
+        <v>45110.33333333334</v>
+      </c>
+      <c r="B394" t="inlineStr">
+        <is>
+          <t>FX_IDC:USDIDR</t>
+        </is>
+      </c>
+      <c r="C394" t="n">
+        <v>14989</v>
+      </c>
+      <c r="D394" t="n">
+        <v>15144</v>
+      </c>
+      <c r="E394" t="n">
+        <v>14989</v>
+      </c>
+      <c r="F394" t="n">
+        <v>15130</v>
+      </c>
+      <c r="G394" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Global_M2/TVDataFeed/FinalData/FX_Data/Indonesia_FX.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/FX_Data/Indonesia_FX.xlsx
@@ -10289,13 +10289,13 @@
         <v>14989</v>
       </c>
       <c r="D394" t="n">
-        <v>15144</v>
+        <v>15218</v>
       </c>
       <c r="E394" t="n">
-        <v>14989</v>
+        <v>14919</v>
       </c>
       <c r="F394" t="n">
-        <v>15130</v>
+        <v>15008</v>
       </c>
       <c r="G394" t="n">
         <v>0</v>

--- a/Global_M2/TVDataFeed/FinalData/FX_Data/Indonesia_FX.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/FX_Data/Indonesia_FX.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G394"/>
+  <dimension ref="A1:G395"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -603,7 +603,7 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>33329.33333333334</v>
+        <v>33329.375</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -878,7 +878,7 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>33665.33333333334</v>
+        <v>33665.375</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -903,7 +903,7 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>33695.33333333334</v>
+        <v>33695.375</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -1203,7 +1203,7 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>34060.33333333334</v>
+        <v>34060.375</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -1503,7 +1503,7 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>34425.33333333334</v>
+        <v>34425.375</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
@@ -1653,7 +1653,7 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>34610.33333333334</v>
+        <v>34610.375</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
@@ -1953,7 +1953,7 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>34974.33333333334</v>
+        <v>34974.375</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
@@ -2103,7 +2103,7 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>35156.33333333334</v>
+        <v>35156.375</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
@@ -2403,7 +2403,7 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>35521.33333333334</v>
+        <v>35521.375</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
@@ -2703,7 +2703,7 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
-        <v>35886.33333333334</v>
+        <v>35886.375</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
@@ -3003,7 +3003,7 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="n">
-        <v>36251.33333333334</v>
+        <v>36251.375</v>
       </c>
       <c r="B103" t="inlineStr">
         <is>
@@ -3428,7 +3428,7 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="n">
-        <v>36770.375</v>
+        <v>36770.33333333334</v>
       </c>
       <c r="B120" t="inlineStr">
         <is>
@@ -3903,7 +3903,7 @@
     </row>
     <row r="139">
       <c r="A139" s="2" t="n">
-        <v>37347.33333333334</v>
+        <v>37347.375</v>
       </c>
       <c r="B139" t="inlineStr">
         <is>
@@ -4203,7 +4203,7 @@
     </row>
     <row r="151">
       <c r="A151" s="2" t="n">
-        <v>37712.33333333334</v>
+        <v>37712.375</v>
       </c>
       <c r="B151" t="inlineStr">
         <is>
@@ -4503,7 +4503,7 @@
     </row>
     <row r="163">
       <c r="A163" s="2" t="n">
-        <v>38078.33333333334</v>
+        <v>38078.375</v>
       </c>
       <c r="B163" t="inlineStr">
         <is>
@@ -4803,7 +4803,7 @@
     </row>
     <row r="175">
       <c r="A175" s="2" t="n">
-        <v>38443.33333333334</v>
+        <v>38443.375</v>
       </c>
       <c r="B175" t="inlineStr">
         <is>
@@ -4953,7 +4953,7 @@
     </row>
     <row r="181">
       <c r="A181" s="2" t="n">
-        <v>38628.33333333334</v>
+        <v>38628.375</v>
       </c>
       <c r="B181" t="inlineStr">
         <is>
@@ -5253,7 +5253,7 @@
     </row>
     <row r="193">
       <c r="A193" s="2" t="n">
-        <v>38992.33333333334</v>
+        <v>38992.375</v>
       </c>
       <c r="B193" t="inlineStr">
         <is>
@@ -10295,9 +10295,34 @@
         <v>14919</v>
       </c>
       <c r="F394" t="n">
-        <v>15008</v>
+        <v>15074</v>
       </c>
       <c r="G394" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" s="2" t="n">
+        <v>45139.33333333334</v>
+      </c>
+      <c r="B395" t="inlineStr">
+        <is>
+          <t>FX_IDC:USDIDR</t>
+        </is>
+      </c>
+      <c r="C395" t="n">
+        <v>15074</v>
+      </c>
+      <c r="D395" t="n">
+        <v>15207</v>
+      </c>
+      <c r="E395" t="n">
+        <v>15029</v>
+      </c>
+      <c r="F395" t="n">
+        <v>15164</v>
+      </c>
+      <c r="G395" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Global_M2/TVDataFeed/FinalData/FX_Data/Indonesia_FX.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/FX_Data/Indonesia_FX.xlsx
@@ -603,7 +603,7 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>33329.375</v>
+        <v>33329.33333333334</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -878,7 +878,7 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>33665.375</v>
+        <v>33665.33333333334</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -903,7 +903,7 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>33695.375</v>
+        <v>33695.33333333334</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -1203,7 +1203,7 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>34060.375</v>
+        <v>34060.33333333334</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -1503,7 +1503,7 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>34425.375</v>
+        <v>34425.33333333334</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
@@ -1653,7 +1653,7 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>34610.375</v>
+        <v>34610.33333333334</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
@@ -1953,7 +1953,7 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>34974.375</v>
+        <v>34974.33333333334</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
@@ -2103,7 +2103,7 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>35156.375</v>
+        <v>35156.33333333334</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
@@ -2403,7 +2403,7 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>35521.375</v>
+        <v>35521.33333333334</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
@@ -2703,7 +2703,7 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
-        <v>35886.375</v>
+        <v>35886.33333333334</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
@@ -3003,7 +3003,7 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="n">
-        <v>36251.375</v>
+        <v>36251.33333333334</v>
       </c>
       <c r="B103" t="inlineStr">
         <is>
@@ -3428,7 +3428,7 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="n">
-        <v>36770.33333333334</v>
+        <v>36770.375</v>
       </c>
       <c r="B120" t="inlineStr">
         <is>
@@ -3903,7 +3903,7 @@
     </row>
     <row r="139">
       <c r="A139" s="2" t="n">
-        <v>37347.375</v>
+        <v>37347.33333333334</v>
       </c>
       <c r="B139" t="inlineStr">
         <is>
@@ -4203,7 +4203,7 @@
     </row>
     <row r="151">
       <c r="A151" s="2" t="n">
-        <v>37712.375</v>
+        <v>37712.33333333334</v>
       </c>
       <c r="B151" t="inlineStr">
         <is>
@@ -4503,7 +4503,7 @@
     </row>
     <row r="163">
       <c r="A163" s="2" t="n">
-        <v>38078.375</v>
+        <v>38078.33333333334</v>
       </c>
       <c r="B163" t="inlineStr">
         <is>
@@ -4803,7 +4803,7 @@
     </row>
     <row r="175">
       <c r="A175" s="2" t="n">
-        <v>38443.375</v>
+        <v>38443.33333333334</v>
       </c>
       <c r="B175" t="inlineStr">
         <is>
@@ -4953,7 +4953,7 @@
     </row>
     <row r="181">
       <c r="A181" s="2" t="n">
-        <v>38628.375</v>
+        <v>38628.33333333334</v>
       </c>
       <c r="B181" t="inlineStr">
         <is>
@@ -5253,7 +5253,7 @@
     </row>
     <row r="193">
       <c r="A193" s="2" t="n">
-        <v>38992.375</v>
+        <v>38992.33333333334</v>
       </c>
       <c r="B193" t="inlineStr">
         <is>
@@ -10314,13 +10314,13 @@
         <v>15074</v>
       </c>
       <c r="D395" t="n">
-        <v>15207</v>
+        <v>15336</v>
       </c>
       <c r="E395" t="n">
         <v>15029</v>
       </c>
       <c r="F395" t="n">
-        <v>15164</v>
+        <v>15309</v>
       </c>
       <c r="G395" t="n">
         <v>0</v>

--- a/Global_M2/TVDataFeed/FinalData/FX_Data/Indonesia_FX.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/FX_Data/Indonesia_FX.xlsx
@@ -10314,13 +10314,13 @@
         <v>15074</v>
       </c>
       <c r="D395" t="n">
-        <v>15336</v>
+        <v>15358</v>
       </c>
       <c r="E395" t="n">
         <v>15029</v>
       </c>
       <c r="F395" t="n">
-        <v>15309</v>
+        <v>15253</v>
       </c>
       <c r="G395" t="n">
         <v>0</v>

--- a/Global_M2/TVDataFeed/FinalData/FX_Data/Indonesia_FX.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/FX_Data/Indonesia_FX.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G395"/>
+  <dimension ref="A1:G398"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10320,9 +10320,84 @@
         <v>15029</v>
       </c>
       <c r="F395" t="n">
-        <v>15253</v>
+        <v>15232</v>
       </c>
       <c r="G395" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" s="2" t="n">
+        <v>45170.33333333334</v>
+      </c>
+      <c r="B396" t="inlineStr">
+        <is>
+          <t>FX_IDC:USDIDR</t>
+        </is>
+      </c>
+      <c r="C396" t="n">
+        <v>15232</v>
+      </c>
+      <c r="D396" t="n">
+        <v>15540</v>
+      </c>
+      <c r="E396" t="n">
+        <v>15224</v>
+      </c>
+      <c r="F396" t="n">
+        <v>15485</v>
+      </c>
+      <c r="G396" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" s="2" t="n">
+        <v>45201.375</v>
+      </c>
+      <c r="B397" t="inlineStr">
+        <is>
+          <t>FX_IDC:USDIDR</t>
+        </is>
+      </c>
+      <c r="C397" t="n">
+        <v>15485</v>
+      </c>
+      <c r="D397" t="n">
+        <v>15964</v>
+      </c>
+      <c r="E397" t="n">
+        <v>15459</v>
+      </c>
+      <c r="F397" t="n">
+        <v>15879</v>
+      </c>
+      <c r="G397" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" s="2" t="n">
+        <v>45231.375</v>
+      </c>
+      <c r="B398" t="inlineStr">
+        <is>
+          <t>FX_IDC:USDIDR</t>
+        </is>
+      </c>
+      <c r="C398" t="n">
+        <v>15895</v>
+      </c>
+      <c r="D398" t="n">
+        <v>15949</v>
+      </c>
+      <c r="E398" t="n">
+        <v>15509</v>
+      </c>
+      <c r="F398" t="n">
+        <v>15694</v>
+      </c>
+      <c r="G398" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Global_M2/TVDataFeed/FinalData/FX_Data/Indonesia_FX.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/FX_Data/Indonesia_FX.xlsx
@@ -10392,10 +10392,10 @@
         <v>15949</v>
       </c>
       <c r="E398" t="n">
-        <v>15509</v>
+        <v>15469</v>
       </c>
       <c r="F398" t="n">
-        <v>15694</v>
+        <v>15489</v>
       </c>
       <c r="G398" t="n">
         <v>0</v>

--- a/Global_M2/TVDataFeed/FinalData/FX_Data/Indonesia_FX.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/FX_Data/Indonesia_FX.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="8">
   <si>
     <t>symbol</t>
   </si>
@@ -401,7 +401,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G398"/>
+  <dimension ref="A1:G399"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -9552,12 +9552,35 @@
         <v>15949</v>
       </c>
       <c r="E398">
-        <v>15379</v>
+        <v>15359</v>
       </c>
       <c r="F398">
-        <v>15578</v>
+        <v>15504</v>
       </c>
       <c r="G398">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="399" spans="1:7">
+      <c r="A399" s="2">
+        <v>45261.375</v>
+      </c>
+      <c r="B399" t="s">
+        <v>7</v>
+      </c>
+      <c r="C399">
+        <v>15504</v>
+      </c>
+      <c r="D399">
+        <v>15546</v>
+      </c>
+      <c r="E399">
+        <v>15409</v>
+      </c>
+      <c r="F399">
+        <v>15499</v>
+      </c>
+      <c r="G399">
         <v>0</v>
       </c>
     </row>
